--- a/Excel/Hotelnegative.xlsx
+++ b/Excel/Hotelnegative.xlsx
@@ -679,7 +679,7 @@
   <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AN7" sqref="AN7"/>
+      <selection activeCell="AL13" sqref="AL13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Excel/Hotelnegative.xlsx
+++ b/Excel/Hotelnegative.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
   <si>
     <t>Username</t>
   </si>
@@ -280,9 +280,6 @@
   </si>
   <si>
     <t>HTL001</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>1000</t>
@@ -678,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AL13" sqref="AL13"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AP16" sqref="AP16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1006,7 +1003,7 @@
         <v>83</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK2" s="8" t="s">
         <v>84</v>
@@ -1018,55 +1015,55 @@
         <v>86</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="AO2" s="3" t="s">
         <v>87</v>
       </c>
       <c r="AP2" s="8" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="AQ2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT2" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="AR2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT2" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="AU2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="AV2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY2" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="AW2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AX2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AY2" s="6" t="s">
+      <c r="AZ2" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="AZ2" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="BA2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="BB2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD2" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
